--- a/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
+++ b/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/FBN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C017FA8-B075-D541-9679-838FC293721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6577E3-A3BF-3648-A186-7AE2816E2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="3100" windowWidth="34160" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="156">
   <si>
     <t>PMID</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>c.8156_8175del</t>
+  </si>
+  <si>
+    <t>20-year-old man</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
   <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,6 +1346,9 @@
       <c r="B4" t="s">
         <v>109</v>
       </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>

--- a/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
+++ b/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6577E3-A3BF-3648-A186-7AE2816E2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431CF041-D0ED-D248-A2EA-E6D4613BA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="3100" windowWidth="34160" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="8640" windowWidth="36760" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="177">
   <si>
     <t>PMID</t>
   </si>
@@ -307,9 +307,6 @@
     <t>observed</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>Feeding difficulties</t>
   </si>
   <si>
@@ -488,13 +485,79 @@
   </si>
   <si>
     <t>20-year-old man</t>
+  </si>
+  <si>
+    <t>Third trimester onset</t>
+  </si>
+  <si>
+    <t>Small for gestational age</t>
+  </si>
+  <si>
+    <t>HP:0001518</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>HP:0000126</t>
+  </si>
+  <si>
+    <t>High myopia</t>
+  </si>
+  <si>
+    <t>HP:0011003</t>
+  </si>
+  <si>
+    <t>Aortic root aneurysm</t>
+  </si>
+  <si>
+    <t>HP:0002616</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>Abnormal heart valve morphology</t>
+  </si>
+  <si>
+    <t>HP:0001654</t>
+  </si>
+  <si>
+    <t>Fetal tachycardia</t>
+  </si>
+  <si>
+    <t>HP:6000264</t>
+  </si>
+  <si>
+    <t>Deeply set eye</t>
+  </si>
+  <si>
+    <t>HP:0000490</t>
+  </si>
+  <si>
+    <t>Large fontanelles</t>
+  </si>
+  <si>
+    <t>HP:0000239</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,13 +579,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -552,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -560,6 +636,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,7 +955,7 @@
     <col min="11" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,94 +1032,121 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>117</v>
+      <c r="BJ1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1118,94 +1223,121 @@
         <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="s">
         <v>67</v>
       </c>
       <c r="AB2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF2" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO2" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>78</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>83</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>84</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>85</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>86</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>87</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB2" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>118</v>
+      <c r="BC2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1231,19 +1363,19 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
       </c>
       <c r="M3" t="s">
         <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
         <v>93</v>
@@ -1254,6 +1386,9 @@
       <c r="Q3" t="s">
         <v>94</v>
       </c>
+      <c r="R3" t="s">
+        <v>101</v>
+      </c>
       <c r="S3" t="s">
         <v>94</v>
       </c>
@@ -1261,93 +1396,105 @@
         <v>94</v>
       </c>
       <c r="W3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" t="s">
         <v>92</v>
       </c>
-      <c r="AG3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>57</v>
-      </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ3" t="s">
         <v>94</v>
       </c>
       <c r="AK3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>94</v>
       </c>
       <c r="AN3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>101</v>
       </c>
       <c r="AQ3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="AS3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AV3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AW3" t="s">
         <v>94</v>
       </c>
       <c r="AX3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="AY3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ3" t="s">
         <v>94</v>
       </c>
       <c r="BA3" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="BB3" t="s">
-        <v>57</v>
+        <v>164</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -1365,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -1374,111 +1521,123 @@
         <v>92</v>
       </c>
       <c r="N4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c r="O4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" t="s">
-        <v>111</v>
-      </c>
-      <c r="X4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -1499,19 +1658,19 @@
         <v>54</v>
       </c>
       <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
       </c>
       <c r="M5" t="s">
         <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
         <v>93</v>
@@ -1538,72 +1697,84 @@
         <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" t="s">
         <v>94</v>
       </c>
       <c r="AH5" t="s">
         <v>57</v>
       </c>
-      <c r="AI5" t="s">
-        <v>94</v>
+      <c r="AJ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>57</v>
       </c>
       <c r="AL5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>94</v>
+        <v>94</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>101</v>
       </c>
       <c r="AQ5" t="s">
         <v>94</v>
       </c>
-      <c r="AS5" t="s">
-        <v>94</v>
+      <c r="AR5" t="s">
+        <v>166</v>
       </c>
       <c r="AT5" t="s">
         <v>94</v>
       </c>
-      <c r="AU5" t="s">
-        <v>57</v>
-      </c>
       <c r="AV5" t="s">
         <v>94</v>
       </c>
       <c r="AW5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AX5" t="s">
         <v>57</v>
       </c>
+      <c r="AY5" t="s">
+        <v>94</v>
+      </c>
       <c r="BA5" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="BB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>50</v>
@@ -1621,19 +1792,19 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
         <v>123</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>124</v>
       </c>
       <c r="M6" t="s">
         <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>93</v>
@@ -1642,7 +1813,7 @@
         <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
         <v>94</v>
@@ -1660,164 +1831,191 @@
         <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="s">
         <v>94</v>
       </c>
       <c r="AF6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG6" t="s">
         <v>94</v>
       </c>
       <c r="AH6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" t="s">
         <v>94</v>
       </c>
       <c r="AL6" t="s">
         <v>94</v>
       </c>
-      <c r="AN6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>94</v>
+      <c r="AO6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>57</v>
       </c>
       <c r="AS6" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>57</v>
-      </c>
       <c r="AV6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AW6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AX6" t="s">
         <v>57</v>
       </c>
       <c r="AY6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BA6" t="s">
-        <v>102</v>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>133</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>134</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -1835,19 +2033,19 @@
         <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s">
         <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" t="s">
         <v>93</v>
@@ -1862,69 +2060,78 @@
         <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="s">
         <v>94</v>
       </c>
       <c r="AB8" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AC8" t="s">
         <v>94</v>
       </c>
-      <c r="AE8" t="s">
-        <v>102</v>
+      <c r="AD8" t="s">
+        <v>94</v>
       </c>
       <c r="AG8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>94</v>
       </c>
       <c r="AK8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>101</v>
       </c>
       <c r="AV8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AW8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AX8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -1942,19 +2149,19 @@
         <v>54</v>
       </c>
       <c r="J9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
         <v>119</v>
       </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
       <c r="M9" t="s">
         <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" t="s">
         <v>93</v>
@@ -1966,49 +2173,43 @@
         <v>94</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA9" t="s">
         <v>94</v>
       </c>
-      <c r="AB9" t="s">
-        <v>102</v>
+      <c r="AB9" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="AC9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>94</v>
       </c>
       <c r="AG9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>94</v>
       </c>
       <c r="AK9" t="s">
         <v>94</v>
       </c>
       <c r="AL9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>94</v>
       </c>
       <c r="AV9" t="s">
         <v>94</v>
@@ -2017,116 +2218,140 @@
         <v>94</v>
       </c>
       <c r="AX9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="M10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>102</v>
+      <c r="P10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>148</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -2144,16 +2369,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s">
         <v>93</v>
@@ -2177,67 +2402,76 @@
         <v>94</v>
       </c>
       <c r="Z11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA11" t="s">
         <v>94</v>
       </c>
-      <c r="AB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>102</v>
+      <c r="AC11" t="s">
+        <v>101</v>
       </c>
       <c r="AF11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI11" t="s">
         <v>94</v>
       </c>
       <c r="AJ11" t="s">
         <v>94</v>
       </c>
       <c r="AK11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AM11" t="s">
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>94</v>
       </c>
       <c r="AQ11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AV11" t="s">
         <v>94</v>
       </c>
       <c r="AW11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
+++ b/notebooks/FBN1/input/FBN1_lipodystrophy_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FBN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431CF041-D0ED-D248-A2EA-E6D4613BA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFCF03C-273C-C745-B906-BB165FC840C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="8640" windowWidth="36760" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="5660" windowWidth="36760" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="178">
   <si>
     <t>PMID</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>P3Y</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -637,7 +640,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1416,6 +1418,9 @@
       <c r="AF3" t="s">
         <v>57</v>
       </c>
+      <c r="AG3" t="s">
+        <v>101</v>
+      </c>
       <c r="AH3" t="s">
         <v>92</v>
       </c>
@@ -1568,6 +1573,9 @@
       <c r="AF4" t="s">
         <v>94</v>
       </c>
+      <c r="AG4" t="s">
+        <v>101</v>
+      </c>
       <c r="AH4" t="s">
         <v>94</v>
       </c>
@@ -1711,6 +1719,9 @@
       <c r="AD5" t="s">
         <v>94</v>
       </c>
+      <c r="AG5" t="s">
+        <v>177</v>
+      </c>
       <c r="AH5" t="s">
         <v>57</v>
       </c>
@@ -1842,6 +1853,9 @@
       <c r="AF6" t="s">
         <v>94</v>
       </c>
+      <c r="AG6" t="s">
+        <v>101</v>
+      </c>
       <c r="AH6" t="s">
         <v>57</v>
       </c>
@@ -1900,110 +1914,113 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" t="s">
         <v>111</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="4" t="s">
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="s">
         <v>155</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG7" s="4" t="s">
+      <c r="AJ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2107,7 +2124,7 @@
       <c r="AY8" t="s">
         <v>101</v>
       </c>
-      <c r="BA8" s="4" t="s">
+      <c r="BA8" t="s">
         <v>57</v>
       </c>
       <c r="BB8" t="s">
@@ -2223,7 +2240,7 @@
       <c r="AY9" t="s">
         <v>94</v>
       </c>
-      <c r="BA9" s="4" t="s">
+      <c r="BA9" t="s">
         <v>57</v>
       </c>
       <c r="BB9" t="s">
@@ -2239,107 +2256,110 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
         <v>142</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG10" s="4" t="s">
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2458,7 +2478,7 @@
       <c r="AZ11" t="s">
         <v>94</v>
       </c>
-      <c r="BA11" s="4" t="s">
+      <c r="BA11" t="s">
         <v>57</v>
       </c>
       <c r="BB11" t="s">
